--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A450A7-4CC8-4FA7-805E-58F3BC97A3AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC3C7D-CCD9-4D88-AA74-73564E1516C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="0" windowWidth="21840" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Теханализ тренд</t>
   </si>
@@ -69,10 +69,25 @@
     <t>Результат</t>
   </si>
   <si>
-    <t>Июнь</t>
-  </si>
-  <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Год</t>
+  </si>
+  <si>
+    <t>Месяц</t>
+  </si>
+  <si>
+    <t>июнь</t>
+  </si>
+  <si>
+    <t>Действие</t>
   </si>
 </sst>
 </file>
@@ -123,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -159,59 +174,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,189 +593,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J13"/>
+  <dimension ref="B3:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="24">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="37">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="25">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G7" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="37">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="37">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="17">
+        <v>0.3125</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="17">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="8">
-        <v>43990</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="8">
-        <v>43991</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="8">
-        <v>43992</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="8">
-        <v>43993</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="8">
-        <v>43994</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="5">
-        <v>0.3125</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="8">
-        <v>43995</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="5">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="8">
-        <v>43996</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="12"/>
+      <c r="G11" s="17">
         <v>0.20833333333333334</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="8">
-        <v>43997</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I13" s="2"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="22"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B3:B12"/>
+  <mergeCells count="13">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D7:D10"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="E7:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC3C7D-CCD9-4D88-AA74-73564E1516C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EC4113-87F7-4ADE-BA40-A864880B412C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="0" windowWidth="21840" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Теханализ тренд</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Действие</t>
+  </si>
+  <si>
+    <t>рост</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -169,15 +172,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -235,28 +229,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -267,52 +239,74 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -593,60 +587,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:L13"/>
+  <dimension ref="B3:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="7.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="8" max="9" width="10" customWidth="1"/>
     <col min="10" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
@@ -656,177 +649,190 @@
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="6"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="16">
         <v>2020</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="13">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="5">
         <v>0.6875</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="12"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="24">
+      <c r="B6" s="16"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="13">
         <v>9</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="9">
         <v>0.875</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="37">
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="15">
         <v>0.52083333333333337</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="17">
         <v>10</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="37">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="15">
         <v>0.47916666666666669</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="13">
+      <c r="B8" s="16"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="37">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="15">
         <v>0.52083333333333337</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="17">
+      <c r="B9" s="16"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="9">
         <v>0.3125</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="12"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="17">
+      <c r="B10" s="16"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9">
         <v>0.97916666666666663</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="12"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="17">
+      <c r="F11" s="4"/>
+      <c r="G11" s="9">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="12"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="12"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="22"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="10"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
